--- a/medctrl-scraper/PDF_scraper/Text_scraper/dec_output.xlsx
+++ b/medctrl-scraper/PDF_scraper/Text_scraper/dec_output.xlsx
@@ -9994,7 +9994,7 @@
     <t>NEORECORMON</t>
   </si>
   <si>
-    <t>AvonexInterferon Beta</t>
+    <t>Avonex Interferon Beta</t>
   </si>
   <si>
     <t>CYSTAGON</t>
